--- a/ExcelSheets/ExcelSheets.xlsx
+++ b/ExcelSheets/ExcelSheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="3300"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="3300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,11 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>autooo</t>
   </si>
@@ -39,18 +38,6 @@
     <t>ibtikar2020</t>
   </si>
   <si>
-    <t>https://shopatculture.com/</t>
-  </si>
-  <si>
-    <t>http://shopatculture.com/</t>
-  </si>
-  <si>
-    <t>omnifull</t>
-  </si>
-  <si>
-    <t>ibtikar20200</t>
-  </si>
-  <si>
     <t>test test test test test test test test test test test test test test test test test test test testttt</t>
   </si>
   <si>
@@ -72,12 +59,6 @@
     <t>asmaa0abdelkerim</t>
   </si>
   <si>
-    <t>asaoudbfSJDBFC AIS GKJFBG LKDJF GKDJF GSKDJFB DKJF BKJDGB KDJF BKJB GSKFJ BKDFJBN KSDJFB DSKFJB ksdbd</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
     <t>Client Created</t>
   </si>
   <si>
@@ -90,12 +71,6 @@
     <t>This Workspace Name is Used Before</t>
   </si>
   <si>
-    <t>h.a.deera001@gmail.com</t>
-  </si>
-  <si>
-    <t>Session</t>
-  </si>
-  <si>
     <t>session</t>
   </si>
   <si>
@@ -105,7 +80,13 @@
     <t>sessionautomation</t>
   </si>
   <si>
-    <t>hadeer@session.com</t>
+    <t>https://omniful.store</t>
+  </si>
+  <si>
+    <t>Sessionn</t>
+  </si>
+  <si>
+    <t>hadeer@sessionn.com</t>
   </si>
 </sst>
 </file>
@@ -479,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -506,24 +487,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>111111</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -538,10 +519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -553,54 +534,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -608,10 +553,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -624,31 +569,19 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="C1">
+        <v>111111</v>
       </c>
       <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2">
-        <v>111111</v>
-      </c>
-      <c r="D2" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -671,18 +604,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -695,7 +628,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -707,30 +640,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2">
         <v>7188545141</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
